--- a/Vinasa/Content/Files/MauGiaiThuong.xlsx
+++ b/Vinasa/Content/Files/MauGiaiThuong.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41563125-919A-4B41-B7DC-E7597313190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0AE57-6A34-43CB-935D-42BA232041A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7DE67A16-3993-4D3D-B045-B79B25F6E00C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -113,12 +113,24 @@
   </si>
   <si>
     <t>https://vinasa.org.vn/SiteFolders/Root/391/Document/GioithieuVINASA2022.pdf</t>
+  </si>
+  <si>
+    <t>Kinh phí truyền thông</t>
+  </si>
+  <si>
+    <t>Giải thưởng</t>
+  </si>
+  <si>
+    <t>Top 10 doanh số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,6 +198,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -502,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF4140-F4C6-43BC-986A-BAEF4F7503B7}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -521,11 +534,11 @@
     <col min="10" max="11" width="12" style="2"/>
     <col min="12" max="12" width="17.44140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="12" style="2"/>
-    <col min="14" max="14" width="31.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="77.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +581,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -608,6 +627,12 @@
       </c>
       <c r="N2" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -617,5 +642,6 @@
     <hyperlink ref="N2" r:id="rId3" xr:uid="{638C1AAA-5173-4F36-B3F1-8C431AE51E67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Vinasa/Content/Files/MauGiaiThuong.xlsx
+++ b/Vinasa/Content/Files/MauGiaiThuong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0AE57-6A34-43CB-935D-42BA232041A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C44B7-5608-4C23-BB19-8C0C2F862CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7DE67A16-3993-4D3D-B045-B79B25F6E00C}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>manhnt@vinasa.org.vn</t>
   </si>
   <si>
-    <t xml:space="preserve">Hồ Chí Minh </t>
-  </si>
-  <si>
     <t xml:space="preserve">97 Nguyễn Công Trứ, Phường Nguyễn Thái Bình, Quận 1, TP. HCM </t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Top 10 doanh số</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF4140-F4C6-43BC-986A-BAEF4F7503B7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -582,10 +582,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -620,19 +620,19 @@
         <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="O2" s="5">
         <v>5000000</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
